--- a/03_複数シート同時編集/data.xlsx
+++ b/03_複数シート同時編集/data.xlsx
@@ -714,6 +714,13 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
         <is>

--- a/03_複数シート同時編集/data.xlsx
+++ b/03_複数シート同時編集/data.xlsx
@@ -611,6 +611,11 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
@@ -715,6 +720,11 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>555</t>
